--- a/biology/Zoologie/Epibulus_insidiator/Epibulus_insidiator.xlsx
+++ b/biology/Zoologie/Epibulus_insidiator/Epibulus_insidiator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epibulus insidiator · Labre traître, Labre à long museau, Epibule trompeur
-Epibulus insidiator, communément nommé Labre traître, Labre à long museau ou Epibule trompeur[2] entre autres nom vernaculaire, est une espèce de poissons marins de la famille des labres.
+Epibulus insidiator, communément nommé Labre traître, Labre à long museau ou Epibule trompeur entre autres nom vernaculaire, est une espèce de poissons marins de la famille des labres.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Labre à long museau est présent dans les eaux tropicales de l'Indo-Pacifique, Mer Rouge et Hawaii inclus[3]. Il vit dans les récifs coralliens et dans les lagons, à une profondeur variant de 1 à 40 m.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Labre à long museau est présent dans les eaux tropicales de l'Indo-Pacifique, Mer Rouge et Hawaii inclus. Il vit dans les récifs coralliens et dans les lagons, à une profondeur variant de 1 à 40 m.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut atteindre une taille de 54 cm de long cependant la taille moyenne fréquemment observée est de 35 cm[4][3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut atteindre une taille de 54 cm de long cependant la taille moyenne fréquemment observée est de 35 cm.
 Il y a un fort dimorphisme sexuel chez cette espèce de poisson : les femelles sont brunes ou jaunes ; les mâles sont gris bleuté avec des écailles très marquées, ont une tête  blanche et un dos marron.
 	Mâle et femelle
 			Femelle, île de la Réunion
@@ -580,7 +596,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson aspire des petits poissons et des petits crustacés pour se nourrir.
 </t>
@@ -611,10 +629,12 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cette espèce est, comme pour beaucoup de labridae, hermaphrodite protogyne : ce poisson est pour commencer femelle puis, plus tard, il devient mâle. Le mâle vit avec plusieurs femelles. Les œufs et les larves du labre à long museau sont planctoniques[5].
+Cette espèce est, comme pour beaucoup de labridae, hermaphrodite protogyne : ce poisson est pour commencer femelle puis, plus tard, il devient mâle. Le mâle vit avec plusieurs femelles. Les œufs et les larves du labre à long museau sont planctoniques.
 			Vidéo de 11 secondes
 </t>
         </is>
